--- a/Code/Results/Cases/Case_4_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_227/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.502723232815981</v>
+        <v>2.235119684511858</v>
       </c>
       <c r="C2">
-        <v>0.5561226194905373</v>
+        <v>0.5071586931836123</v>
       </c>
       <c r="D2">
-        <v>0.5391691542107822</v>
+        <v>0.6973440416867049</v>
       </c>
       <c r="E2">
-        <v>0.2397733763689516</v>
+        <v>0.2834699150656448</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008562136569715295</v>
+        <v>0.002679793540247113</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1413352751314108</v>
+        <v>0.1467305111030441</v>
       </c>
       <c r="K2">
-        <v>2.966036880733157</v>
+        <v>2.662915578627405</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.862595642498349</v>
+        <v>5.464709227481421</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.211959184513205</v>
+        <v>2.175917881542034</v>
       </c>
       <c r="C3">
-        <v>0.4913892918820011</v>
+        <v>0.494474703544256</v>
       </c>
       <c r="D3">
-        <v>0.4871096453834696</v>
+        <v>0.6892302650019815</v>
       </c>
       <c r="E3">
-        <v>0.2151940683282092</v>
+        <v>0.2793667667859339</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008670345039533626</v>
+        <v>0.002686100997040191</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1257643313883889</v>
+        <v>0.1439233637187414</v>
       </c>
       <c r="K3">
-        <v>2.621310790233451</v>
+        <v>2.593373454143858</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.623509321023533</v>
+        <v>5.384164746932356</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.038498730710273</v>
+        <v>2.140946789185307</v>
       </c>
       <c r="C4">
-        <v>0.452880293598156</v>
+        <v>0.4870057640592051</v>
       </c>
       <c r="D4">
-        <v>0.4562654041305905</v>
+        <v>0.684629425232913</v>
       </c>
       <c r="E4">
-        <v>0.2006166088261665</v>
+        <v>0.2770098796821969</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008738272877486648</v>
+        <v>0.002690172732646706</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1165186494493327</v>
+        <v>0.142289315308183</v>
       </c>
       <c r="K4">
-        <v>2.415798147058126</v>
+        <v>2.552325387472763</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4.480499534587665</v>
+        <v>5.33511702224996</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.968935756403511</v>
+        <v>2.127040831720166</v>
       </c>
       <c r="C5">
-        <v>0.4374609745450471</v>
+        <v>0.4840418579045433</v>
       </c>
       <c r="D5">
-        <v>0.4439477432592298</v>
+        <v>0.6828500529240671</v>
       </c>
       <c r="E5">
-        <v>0.1947911364275328</v>
+        <v>0.2760901148689712</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008766355990006414</v>
+        <v>0.002691882207659955</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1128209226829782</v>
+        <v>0.1416458247208894</v>
       </c>
       <c r="K5">
-        <v>2.333412120752115</v>
+        <v>2.536010961083122</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4.423066783148528</v>
+        <v>5.315230292766643</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.957448596526177</v>
+        <v>2.124752548317218</v>
       </c>
       <c r="C6">
-        <v>0.4349160895967543</v>
+        <v>0.4835545060072945</v>
       </c>
       <c r="D6">
-        <v>0.4419167775177186</v>
+        <v>0.6825603489809851</v>
       </c>
       <c r="E6">
-        <v>0.1938303714418197</v>
+        <v>0.2759398411507306</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008771044216865548</v>
+        <v>0.002692169102797261</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1122108912832829</v>
+        <v>0.141540322857054</v>
       </c>
       <c r="K6">
-        <v>2.319809197588114</v>
+        <v>2.53332684396284</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4.413578179681053</v>
+        <v>5.311934143913533</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.037556219949806</v>
+        <v>2.140757853745527</v>
       </c>
       <c r="C7">
-        <v>0.4526712833828697</v>
+        <v>0.4869654695266377</v>
       </c>
       <c r="D7">
-        <v>0.4560983027160432</v>
+        <v>0.6846050416930325</v>
       </c>
       <c r="E7">
-        <v>0.2005375969480454</v>
+        <v>0.2769973108932788</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008738649953673876</v>
+        <v>0.002690195583489399</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.116468508857011</v>
+        <v>0.1422805464404391</v>
       </c>
       <c r="K7">
-        <v>2.414681776062565</v>
+        <v>2.552103696055752</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>4.479721690963004</v>
+        <v>5.334848417711044</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.401319540498378</v>
+        <v>2.214419605672902</v>
       </c>
       <c r="C8">
-        <v>0.5335217111563963</v>
+        <v>0.5027187264784914</v>
       </c>
       <c r="D8">
-        <v>0.5209673364498713</v>
+        <v>0.6944671301847052</v>
       </c>
       <c r="E8">
-        <v>0.2311825528612417</v>
+        <v>0.2820213270632053</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008599155825499115</v>
+        <v>0.002681927176011455</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1358951836012281</v>
+        <v>0.1457439455620673</v>
       </c>
       <c r="K8">
-        <v>2.845781608642341</v>
+        <v>2.638593417502875</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>4.77930349879324</v>
+        <v>5.436851981544066</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.162633680239651</v>
+        <v>2.369901914009176</v>
       </c>
       <c r="C9">
-        <v>0.7038303646539248</v>
+        <v>0.5361671787496221</v>
       </c>
       <c r="D9">
-        <v>0.6586117388456785</v>
+        <v>0.7168463732124621</v>
       </c>
       <c r="E9">
-        <v>0.2960957533720787</v>
+        <v>0.2931710037082595</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.000833598813228676</v>
+        <v>0.002667282731063908</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1769638194822321</v>
+        <v>0.153252288464941</v>
       </c>
       <c r="K9">
-        <v>3.74943072275903</v>
+        <v>2.821412390055855</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.402375311152326</v>
+        <v>5.640196880945894</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.763709732640507</v>
+        <v>2.491001232344388</v>
       </c>
       <c r="C10">
-        <v>0.839271901078888</v>
+        <v>0.5623379720755963</v>
       </c>
       <c r="D10">
-        <v>0.7685972832686048</v>
+        <v>0.7351671798355426</v>
       </c>
       <c r="E10">
-        <v>0.3479169576931227</v>
+        <v>0.3021669974018195</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008146689406789395</v>
+        <v>0.00265746848647027</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2097164897334096</v>
+        <v>0.1592148567572735</v>
       </c>
       <c r="K10">
-        <v>4.46413240826746</v>
+        <v>2.96396003628729</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.890703350564252</v>
+        <v>5.791752677636907</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.049587386217638</v>
+        <v>2.547615634486135</v>
       </c>
       <c r="C11">
-        <v>0.9039823895165</v>
+        <v>0.5745989064982382</v>
       </c>
       <c r="D11">
-        <v>0.8212309697500473</v>
+        <v>0.7439156432616585</v>
       </c>
       <c r="E11">
-        <v>0.3727112337015797</v>
+        <v>0.3064371863876971</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008060842689745485</v>
+        <v>0.002653206362802084</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2253847874831791</v>
+        <v>0.1620263775576234</v>
       </c>
       <c r="K11">
-        <v>4.804424193265277</v>
+        <v>3.030635813459924</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>6.121866102403317</v>
+        <v>5.861198614032446</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.159970072677424</v>
+        <v>2.569275811687191</v>
       </c>
       <c r="C12">
-        <v>0.9290184558859096</v>
+        <v>0.5792936023886455</v>
       </c>
       <c r="D12">
-        <v>0.8416039608528365</v>
+        <v>0.7472884665603203</v>
       </c>
       <c r="E12">
-        <v>0.3823082625678182</v>
+        <v>0.3080800010733853</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008028312203641818</v>
+        <v>0.002651621318107263</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2314495753039552</v>
+        <v>0.1631054407970254</v>
       </c>
       <c r="K12">
-        <v>4.93588080357091</v>
+        <v>3.056150342386843</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>6.210935757966865</v>
+        <v>5.887570418492487</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.136096584952725</v>
+        <v>2.564601017690052</v>
       </c>
       <c r="C13">
-        <v>0.9236013095502358</v>
+        <v>0.5782802045732183</v>
       </c>
       <c r="D13">
-        <v>0.8371954187102517</v>
+        <v>0.7465593949843026</v>
       </c>
       <c r="E13">
-        <v>0.3802315425980822</v>
+        <v>0.3077250412633603</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008035320288020132</v>
+        <v>0.00265196140205148</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2301371903273122</v>
+        <v>0.1628724023220229</v>
       </c>
       <c r="K13">
-        <v>4.907446465709313</v>
+        <v>3.050643464392465</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>6.191680625964921</v>
+        <v>5.881887451052876</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.058623867125618</v>
+        <v>2.54939317804434</v>
       </c>
       <c r="C14">
-        <v>0.9060309191102931</v>
+        <v>0.5749841014230697</v>
       </c>
       <c r="D14">
-        <v>0.8228977841670257</v>
+        <v>0.7441919232231555</v>
       </c>
       <c r="E14">
-        <v>0.3734964126703701</v>
+        <v>0.3065718237130568</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008058167215757131</v>
+        <v>0.002653075381356026</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2258809715464167</v>
+        <v>0.1621148632538905</v>
       </c>
       <c r="K14">
-        <v>4.815184561889964</v>
+        <v>3.032729565262628</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>6.12916169063709</v>
+        <v>5.863366741591449</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.011457592255226</v>
+        <v>2.540106851448911</v>
       </c>
       <c r="C15">
-        <v>0.8953405966736625</v>
+        <v>0.5729718998612441</v>
       </c>
       <c r="D15">
-        <v>0.8141998115443698</v>
+        <v>0.7427496004554257</v>
       </c>
       <c r="E15">
-        <v>0.3693990954185224</v>
+        <v>0.3058688091889294</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008072156760955742</v>
+        <v>0.002653761488002355</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2232917307125888</v>
+        <v>0.1616527286380744</v>
       </c>
       <c r="K15">
-        <v>4.759022998683577</v>
+        <v>3.021791488417875</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>6.091074411110242</v>
+        <v>5.852031983253198</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.745304951687729</v>
+        <v>2.487332230638231</v>
       </c>
       <c r="C16">
-        <v>0.8351122798674453</v>
+        <v>0.5615438995447732</v>
       </c>
       <c r="D16">
-        <v>0.7652154158772362</v>
+        <v>0.7346038168891766</v>
       </c>
       <c r="E16">
-        <v>0.3463238040936432</v>
+        <v>0.3018915274464931</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008152300104393445</v>
+        <v>0.002657751084110368</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.208709714051821</v>
+        <v>0.1590331243700973</v>
       </c>
       <c r="K16">
-        <v>4.442232620171978</v>
+        <v>2.959639672706885</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.875797149316782</v>
+        <v>5.787224493371809</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.585439254745438</v>
+        <v>2.455348984803095</v>
       </c>
       <c r="C17">
-        <v>0.7990142838927454</v>
+        <v>0.5546247164884051</v>
       </c>
       <c r="D17">
-        <v>0.7358759040004372</v>
+        <v>0.7297130217497738</v>
       </c>
       <c r="E17">
-        <v>0.3325018819269445</v>
+        <v>0.2994972973264254</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008201493640682659</v>
+        <v>0.002660250290186249</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1999748860603461</v>
+        <v>0.1574515730018646</v>
       </c>
       <c r="K17">
-        <v>4.252050732235773</v>
+        <v>2.921982180181374</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.746198039990247</v>
+        <v>5.74759721862182</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.494636915045191</v>
+        <v>2.437096544213773</v>
       </c>
       <c r="C18">
-        <v>0.7785372669010258</v>
+        <v>0.5506784299757328</v>
       </c>
       <c r="D18">
-        <v>0.7192407152912779</v>
+        <v>0.7269389308277141</v>
       </c>
       <c r="E18">
-        <v>0.3246645241739472</v>
+        <v>0.2981369282292761</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008229817668479189</v>
+        <v>0.002661706831440121</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1950217736677331</v>
+        <v>0.156551226924023</v>
       </c>
       <c r="K18">
-        <v>4.144062541263452</v>
+        <v>2.900494682971214</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.67248884275233</v>
+        <v>5.724851836578495</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.464080620899324</v>
+        <v>2.430941159471104</v>
       </c>
       <c r="C19">
-        <v>0.7716507618413289</v>
+        <v>0.5493480113882185</v>
       </c>
       <c r="D19">
-        <v>0.7136476845094535</v>
+        <v>0.7260063514974604</v>
       </c>
       <c r="E19">
-        <v>0.3220293753256911</v>
+        <v>0.2976791975009903</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008239414401084328</v>
+        <v>0.002662203271101193</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1933563353689465</v>
+        <v>0.1562479815476792</v>
       </c>
       <c r="K19">
-        <v>4.107728438990819</v>
+        <v>2.893248862548148</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.647668621423747</v>
+        <v>5.717158686904611</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.602336133200424</v>
+        <v>2.458738791355017</v>
       </c>
       <c r="C20">
-        <v>0.8028268417548929</v>
+        <v>0.5553578096810554</v>
       </c>
       <c r="D20">
-        <v>0.7389738386535214</v>
+        <v>0.7302296196185978</v>
       </c>
       <c r="E20">
-        <v>0.3339613730091529</v>
+        <v>0.2997504343462509</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008196254288116396</v>
+        <v>0.00265998227385067</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2008972419424566</v>
+        <v>0.1576189661526257</v>
       </c>
       <c r="K20">
-        <v>4.272148308130738</v>
+        <v>2.925973053963162</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.759906307256642</v>
+        <v>5.751810713323721</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.081318776778915</v>
+        <v>2.553854059586683</v>
       </c>
       <c r="C21">
-        <v>0.9111765777655307</v>
+        <v>0.5759508376248164</v>
       </c>
       <c r="D21">
-        <v>0.8270847579487963</v>
+        <v>0.7448856762246123</v>
       </c>
       <c r="E21">
-        <v>0.3754687521897537</v>
+        <v>0.3069098501164689</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008051457653928453</v>
+        <v>0.002652747395078586</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2271273705389945</v>
+        <v>0.1623369787948263</v>
       </c>
       <c r="K21">
-        <v>4.842210020908681</v>
+        <v>3.037984074580777</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>6.147481321771124</v>
+        <v>5.86880469574362</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.406960697977354</v>
+        <v>2.617309673261104</v>
       </c>
       <c r="C22">
-        <v>0.9851397693647357</v>
+        <v>0.5897114744071246</v>
       </c>
       <c r="D22">
-        <v>0.8872857322638765</v>
+        <v>0.754814003509324</v>
       </c>
       <c r="E22">
-        <v>0.4038278865640237</v>
+        <v>0.311739348694843</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007956659380321529</v>
+        <v>0.002648187521294685</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2450495877611871</v>
+        <v>0.1655044860562072</v>
       </c>
       <c r="K22">
-        <v>5.230154098230855</v>
+        <v>3.112740678014916</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.409861600163822</v>
+        <v>5.945700037594975</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.231879311143757</v>
+        <v>2.583323253550304</v>
       </c>
       <c r="C23">
-        <v>0.9453433017077657</v>
+        <v>0.5823393389828482</v>
       </c>
       <c r="D23">
-        <v>0.8548904167828084</v>
+        <v>0.7494829301644756</v>
       </c>
       <c r="E23">
-        <v>0.3885671078725466</v>
+        <v>0.3091479214341462</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.000800729290562748</v>
+        <v>0.002650605849743597</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2354049155572255</v>
+        <v>0.1638061907205071</v>
       </c>
       <c r="K23">
-        <v>5.021537748790649</v>
+        <v>3.072698856332067</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.268904785651955</v>
+        <v>5.904619296642636</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.594693632403676</v>
+        <v>2.457205839000778</v>
       </c>
       <c r="C24">
-        <v>0.8011023303374714</v>
+        <v>0.5550262797292191</v>
       </c>
       <c r="D24">
-        <v>0.7375725432034415</v>
+        <v>0.7299959483491136</v>
       </c>
       <c r="E24">
-        <v>0.3333011997973188</v>
+        <v>0.2996359409496634</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008198622863127503</v>
+        <v>0.002660103382562176</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2004800325291143</v>
+        <v>0.1575432599710638</v>
       </c>
       <c r="K24">
-        <v>4.263058019692551</v>
+        <v>2.924168274609826</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.753706328094722</v>
+        <v>5.749905677681227</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.950358514149741</v>
+        <v>2.326644388270267</v>
       </c>
       <c r="C25">
-        <v>0.6562010830048166</v>
+        <v>0.5268409510910033</v>
       </c>
       <c r="D25">
-        <v>0.6200217801468</v>
+        <v>0.7104641568035106</v>
       </c>
       <c r="E25">
-        <v>0.2779064114409024</v>
+        <v>0.2900144501302151</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008406287256426481</v>
+        <v>0.002671077618665708</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1654628814128927</v>
+        <v>0.1511434116912156</v>
       </c>
       <c r="K25">
-        <v>3.497286415174301</v>
+        <v>2.770522556023195</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>5.229165840732691</v>
+        <v>5.584817627916834</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_227/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_227/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.235119684511858</v>
+        <v>2.502723232815868</v>
       </c>
       <c r="C2">
-        <v>0.5071586931836123</v>
+        <v>0.5561226194905373</v>
       </c>
       <c r="D2">
-        <v>0.6973440416867049</v>
+        <v>0.5391691542107822</v>
       </c>
       <c r="E2">
-        <v>0.2834699150656448</v>
+        <v>0.239773376368916</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002679793540247113</v>
+        <v>0.0008562136570333625</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1467305111030441</v>
+        <v>0.1413352751313681</v>
       </c>
       <c r="K2">
-        <v>2.662915578627405</v>
+        <v>2.96603688073327</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>5.464709227481421</v>
+        <v>4.862595642498405</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.175917881542034</v>
+        <v>2.211959184513205</v>
       </c>
       <c r="C3">
-        <v>0.494474703544256</v>
+        <v>0.4913892918820864</v>
       </c>
       <c r="D3">
-        <v>0.6892302650019815</v>
+        <v>0.4871096453830717</v>
       </c>
       <c r="E3">
-        <v>0.2793667667859339</v>
+        <v>0.2151940683282163</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002686100997040191</v>
+        <v>0.0008670345040141022</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1439233637187414</v>
+        <v>0.1257643313882895</v>
       </c>
       <c r="K3">
-        <v>2.593373454143858</v>
+        <v>2.621310790233423</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>5.384164746932356</v>
+        <v>4.623509321023477</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.140946789185307</v>
+        <v>2.03849873071016</v>
       </c>
       <c r="C4">
-        <v>0.4870057640592051</v>
+        <v>0.452880293598156</v>
       </c>
       <c r="D4">
-        <v>0.684629425232913</v>
+        <v>0.4562654041308178</v>
       </c>
       <c r="E4">
-        <v>0.2770098796821969</v>
+        <v>0.2006166088261523</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002690172732646706</v>
+        <v>0.0008738272878193583</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.142289315308183</v>
+        <v>0.1165186494494392</v>
       </c>
       <c r="K4">
-        <v>2.552325387472763</v>
+        <v>2.415798147058098</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>5.33511702224996</v>
+        <v>4.480499534587636</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.127040831720166</v>
+        <v>1.968935756403511</v>
       </c>
       <c r="C5">
-        <v>0.4840418579045433</v>
+        <v>0.4374609745450471</v>
       </c>
       <c r="D5">
-        <v>0.6828500529240671</v>
+        <v>0.4439477432592582</v>
       </c>
       <c r="E5">
-        <v>0.2760901148689712</v>
+        <v>0.1947911364275399</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002691882207659955</v>
+        <v>0.0008766355990749396</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1416458247208894</v>
+        <v>0.1128209226831558</v>
       </c>
       <c r="K5">
-        <v>2.536010961083122</v>
+        <v>2.33341212075203</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.315230292766643</v>
+        <v>4.423066783148585</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.124752548317218</v>
+        <v>1.957448596526206</v>
       </c>
       <c r="C6">
-        <v>0.4835545060072945</v>
+        <v>0.4349160895964985</v>
       </c>
       <c r="D6">
-        <v>0.6825603489809851</v>
+        <v>0.4419167775175765</v>
       </c>
       <c r="E6">
-        <v>0.2759398411507306</v>
+        <v>0.1938303714418623</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002692169102797261</v>
+        <v>0.000877104421555311</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.141540322857054</v>
+        <v>0.1122108912831976</v>
       </c>
       <c r="K6">
-        <v>2.53332684396284</v>
+        <v>2.319809197588086</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.311934143913533</v>
+        <v>4.413578179681053</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.140757853745527</v>
+        <v>2.037556219949806</v>
       </c>
       <c r="C7">
-        <v>0.4869654695266377</v>
+        <v>0.452671283382557</v>
       </c>
       <c r="D7">
-        <v>0.6846050416930325</v>
+        <v>0.4560983027158727</v>
       </c>
       <c r="E7">
-        <v>0.2769973108932788</v>
+        <v>0.2005375969479601</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002690195583489399</v>
+        <v>0.0008738649953615149</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1422805464404391</v>
+        <v>0.1164685088570323</v>
       </c>
       <c r="K7">
-        <v>2.552103696055752</v>
+        <v>2.414681776062622</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>5.334848417711044</v>
+        <v>4.479721690962919</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.214419605672902</v>
+        <v>2.401319540498434</v>
       </c>
       <c r="C8">
-        <v>0.5027187264784914</v>
+        <v>0.5335217111566806</v>
       </c>
       <c r="D8">
-        <v>0.6944671301847052</v>
+        <v>0.5209673364498428</v>
       </c>
       <c r="E8">
-        <v>0.2820213270632053</v>
+        <v>0.2311825528612701</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002681927176011455</v>
+        <v>0.0008599155825470342</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1457439455620673</v>
+        <v>0.1358951836011499</v>
       </c>
       <c r="K8">
-        <v>2.638593417502875</v>
+        <v>2.845781608642454</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>5.436851981544066</v>
+        <v>4.779303498793155</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.369901914009176</v>
+        <v>3.162633680239651</v>
       </c>
       <c r="C9">
-        <v>0.5361671787496221</v>
+        <v>0.7038303646537827</v>
       </c>
       <c r="D9">
-        <v>0.7168463732124621</v>
+        <v>0.6586117388457353</v>
       </c>
       <c r="E9">
-        <v>0.2931710037082595</v>
+        <v>0.2960957533720432</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002667282731063908</v>
+        <v>0.0008335988132606859</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.153252288464941</v>
+        <v>0.176963819482296</v>
       </c>
       <c r="K9">
-        <v>2.821412390055855</v>
+        <v>3.74943072275903</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>5.640196880945894</v>
+        <v>5.402375311152298</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.491001232344388</v>
+        <v>3.76370973264028</v>
       </c>
       <c r="C10">
-        <v>0.5623379720755963</v>
+        <v>0.8392719010783765</v>
       </c>
       <c r="D10">
-        <v>0.7351671798355426</v>
+        <v>0.7685972832688321</v>
       </c>
       <c r="E10">
-        <v>0.3021669974018195</v>
+        <v>0.3479169576931156</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.00265746848647027</v>
+        <v>0.000814668940830124</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1592148567572735</v>
+        <v>0.2097164897332817</v>
       </c>
       <c r="K10">
-        <v>2.96396003628729</v>
+        <v>4.464132408267574</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.791752677636907</v>
+        <v>5.890703350564195</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.547615634486135</v>
+        <v>4.049587386217695</v>
       </c>
       <c r="C11">
-        <v>0.5745989064982382</v>
+        <v>0.9039823895168695</v>
       </c>
       <c r="D11">
-        <v>0.7439156432616585</v>
+        <v>0.821230969749621</v>
       </c>
       <c r="E11">
-        <v>0.3064371863876971</v>
+        <v>0.3727112337016152</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002653206362802084</v>
+        <v>0.0008060842690187885</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1620263775576234</v>
+        <v>0.225384787483236</v>
       </c>
       <c r="K11">
-        <v>3.030635813459924</v>
+        <v>4.80442419326522</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.861198614032446</v>
+        <v>6.12186610240326</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.569275811687191</v>
+        <v>4.159970072677538</v>
       </c>
       <c r="C12">
-        <v>0.5792936023886455</v>
+        <v>0.9290184558855401</v>
       </c>
       <c r="D12">
-        <v>0.7472884665603203</v>
+        <v>0.8416039608529218</v>
       </c>
       <c r="E12">
-        <v>0.3080800010733853</v>
+        <v>0.3823082625678396</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002651621318107263</v>
+        <v>0.0008028312205808653</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1631054407970254</v>
+        <v>0.2314495753039125</v>
       </c>
       <c r="K12">
-        <v>3.056150342386843</v>
+        <v>4.935880803570853</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.887570418492487</v>
+        <v>6.210935757966809</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.564601017690052</v>
+        <v>4.136096584952952</v>
       </c>
       <c r="C13">
-        <v>0.5782802045732183</v>
+        <v>0.9236013095506905</v>
       </c>
       <c r="D13">
-        <v>0.7465593949843026</v>
+        <v>0.8371954187102801</v>
       </c>
       <c r="E13">
-        <v>0.3077250412633603</v>
+        <v>0.3802315425979756</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.00265196140205148</v>
+        <v>0.0008035320288017912</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1628724023220229</v>
+        <v>0.2301371903274401</v>
       </c>
       <c r="K13">
-        <v>3.050643464392465</v>
+        <v>4.907446465709143</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.881887451052876</v>
+        <v>6.191680625964921</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.54939317804434</v>
+        <v>4.058623867125505</v>
       </c>
       <c r="C14">
-        <v>0.5749841014230697</v>
+        <v>0.9060309191102647</v>
       </c>
       <c r="D14">
-        <v>0.7441919232231555</v>
+        <v>0.82289778416731</v>
       </c>
       <c r="E14">
-        <v>0.3065718237130568</v>
+        <v>0.3734964126703275</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002653075381356026</v>
+        <v>0.0008058167215862778</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1621148632538905</v>
+        <v>0.2258809715463457</v>
       </c>
       <c r="K14">
-        <v>3.032729565262628</v>
+        <v>4.815184561890135</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.863366741591449</v>
+        <v>6.129161690637034</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.540106851448911</v>
+        <v>4.011457592255113</v>
       </c>
       <c r="C15">
-        <v>0.5729718998612441</v>
+        <v>0.8953405966733499</v>
       </c>
       <c r="D15">
-        <v>0.7427496004554257</v>
+        <v>0.8141998115443982</v>
       </c>
       <c r="E15">
-        <v>0.3058688091889294</v>
+        <v>0.3693990954184514</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002653761488002355</v>
+        <v>0.000807215676005135</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1616527286380744</v>
+        <v>0.2232917307124893</v>
       </c>
       <c r="K15">
-        <v>3.021791488417875</v>
+        <v>4.75902299868352</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.852031983253198</v>
+        <v>6.091074411110299</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.487332230638231</v>
+        <v>3.745304951687785</v>
       </c>
       <c r="C16">
-        <v>0.5615438995447732</v>
+        <v>0.8351122798678148</v>
       </c>
       <c r="D16">
-        <v>0.7346038168891766</v>
+        <v>0.7652154158772362</v>
       </c>
       <c r="E16">
-        <v>0.3018915274464931</v>
+        <v>0.3463238040936645</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002657751084110368</v>
+        <v>0.0008152300103387929</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1590331243700973</v>
+        <v>0.2087097140516079</v>
       </c>
       <c r="K16">
-        <v>2.959639672706885</v>
+        <v>4.442232620172149</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.787224493371809</v>
+        <v>5.875797149316838</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.455348984803095</v>
+        <v>3.585439254745268</v>
       </c>
       <c r="C17">
-        <v>0.5546247164884051</v>
+        <v>0.7990142838924612</v>
       </c>
       <c r="D17">
-        <v>0.7297130217497738</v>
+        <v>0.7358759040006646</v>
       </c>
       <c r="E17">
-        <v>0.2994972973264254</v>
+        <v>0.3325018819270298</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002660250290186249</v>
+        <v>0.0008201493639551874</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1574515730018646</v>
+        <v>0.1999748860605166</v>
       </c>
       <c r="K17">
-        <v>2.921982180181374</v>
+        <v>4.252050732235887</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.74759721862182</v>
+        <v>5.746198039990276</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.437096544213773</v>
+        <v>3.494636915045191</v>
       </c>
       <c r="C18">
-        <v>0.5506784299757328</v>
+        <v>0.7785372669006279</v>
       </c>
       <c r="D18">
-        <v>0.7269389308277141</v>
+        <v>0.7192407152910789</v>
       </c>
       <c r="E18">
-        <v>0.2981369282292761</v>
+        <v>0.3246645241739472</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002661706831440121</v>
+        <v>0.0008229817668474376</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.156551226924023</v>
+        <v>0.1950217736677331</v>
       </c>
       <c r="K18">
-        <v>2.900494682971214</v>
+        <v>4.144062541263338</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.724851836578495</v>
+        <v>5.672488842752273</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.430941159471104</v>
+        <v>3.464080620899665</v>
       </c>
       <c r="C19">
-        <v>0.5493480113882185</v>
+        <v>0.7716507618410446</v>
       </c>
       <c r="D19">
-        <v>0.7260063514974604</v>
+        <v>0.7136476845096809</v>
       </c>
       <c r="E19">
-        <v>0.2976791975009903</v>
+        <v>0.3220293753256982</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002662203271101193</v>
+        <v>0.0008239414401104727</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1562479815476792</v>
+        <v>0.1933563353687759</v>
       </c>
       <c r="K19">
-        <v>2.893248862548148</v>
+        <v>4.107728438990932</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.717158686904611</v>
+        <v>5.647668621423691</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.458738791355017</v>
+        <v>3.602336133200652</v>
       </c>
       <c r="C20">
-        <v>0.5553578096810554</v>
+        <v>0.8028268417549214</v>
       </c>
       <c r="D20">
-        <v>0.7302296196185978</v>
+        <v>0.7389738386533224</v>
       </c>
       <c r="E20">
-        <v>0.2997504343462509</v>
+        <v>0.3339613730091031</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.00265998227385067</v>
+        <v>0.000819625428773703</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1576189661526257</v>
+        <v>0.2008972419425419</v>
       </c>
       <c r="K20">
-        <v>2.925973053963162</v>
+        <v>4.272148308130625</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.751810713323721</v>
+        <v>5.759906307256671</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.553854059586683</v>
+        <v>4.081318776778915</v>
       </c>
       <c r="C21">
-        <v>0.5759508376248164</v>
+        <v>0.911176577765616</v>
       </c>
       <c r="D21">
-        <v>0.7448856762246123</v>
+        <v>0.82708475794837</v>
       </c>
       <c r="E21">
-        <v>0.3069098501164689</v>
+        <v>0.3754687521897893</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002652747395078586</v>
+        <v>0.0008051457655438816</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1623369787948263</v>
+        <v>0.2271273705390513</v>
       </c>
       <c r="K21">
-        <v>3.037984074580777</v>
+        <v>4.842210020908738</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.86880469574362</v>
+        <v>6.147481321771181</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.617309673261104</v>
+        <v>4.406960697977127</v>
       </c>
       <c r="C22">
-        <v>0.5897114744071246</v>
+        <v>0.985139769365361</v>
       </c>
       <c r="D22">
-        <v>0.754814003509324</v>
+        <v>0.8872857322641323</v>
       </c>
       <c r="E22">
-        <v>0.311739348694843</v>
+        <v>0.4038278865639455</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002648187521294685</v>
+        <v>0.0007956659381486834</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1655044860562072</v>
+        <v>0.2450495877612298</v>
       </c>
       <c r="K22">
-        <v>3.112740678014916</v>
+        <v>5.230154098230912</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>5.945700037594975</v>
+        <v>6.409861600163879</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.583323253550304</v>
+        <v>4.231879311143871</v>
       </c>
       <c r="C23">
-        <v>0.5823393389828482</v>
+        <v>0.9453433017080499</v>
       </c>
       <c r="D23">
-        <v>0.7494829301644756</v>
+        <v>0.8548904167826095</v>
       </c>
       <c r="E23">
-        <v>0.3091479214341462</v>
+        <v>0.3885671078725608</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002650605849743597</v>
+        <v>0.0008007292905589893</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1638061907205071</v>
+        <v>0.2354049155571687</v>
       </c>
       <c r="K23">
-        <v>3.072698856332067</v>
+        <v>5.021537748790649</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.904619296642636</v>
+        <v>6.268904785652012</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.457205839000778</v>
+        <v>3.594693632403789</v>
       </c>
       <c r="C24">
-        <v>0.5550262797292191</v>
+        <v>0.8011023303377272</v>
       </c>
       <c r="D24">
-        <v>0.7299959483491136</v>
+        <v>0.7375725432034983</v>
       </c>
       <c r="E24">
-        <v>0.2996359409496634</v>
+        <v>0.3333011997973117</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002660103382562176</v>
+        <v>0.0008198622863537786</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1575432599710638</v>
+        <v>0.2004800325292138</v>
       </c>
       <c r="K24">
-        <v>2.924168274609826</v>
+        <v>4.26305801969238</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.749905677681227</v>
+        <v>5.753706328094722</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.326644388270267</v>
+        <v>2.950358514149627</v>
       </c>
       <c r="C25">
-        <v>0.5268409510910033</v>
+        <v>0.6562010830048166</v>
       </c>
       <c r="D25">
-        <v>0.7104641568035106</v>
+        <v>0.6200217801466579</v>
       </c>
       <c r="E25">
-        <v>0.2900144501302151</v>
+        <v>0.2779064114409096</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002671077618665708</v>
+        <v>0.0008406287256182161</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1511434116912156</v>
+        <v>0.1654628814131271</v>
       </c>
       <c r="K25">
-        <v>2.770522556023195</v>
+        <v>3.497286415174301</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>5.584817627916834</v>
+        <v>5.229165840732662</v>
       </c>
       <c r="O25">
         <v>0</v>
